--- a/biology/Botanique/Cèpe_blanc/Cèpe_blanc.xlsx
+++ b/biology/Botanique/Cèpe_blanc/Cèpe_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_blanc</t>
+          <t>Cèpe_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus edulis f. albus, Boletus persoonii
 Boletus edulis f. albus, auparavant Boletus persoonii, le Cèpe blanc, est la forme albinique entièrement blanche du Cèpe de Bordeaux (Boletus edulis) appartenant au genre Boletus dans la famille des Boletaceae. Érigée auparavant en tant qu'espèce indépendante, cette forme très rare se distingue du B. edulis type par son chapeau et son pied totalement blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_blanc</t>
+          <t>Cèpe_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,60 +524,54 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus edulis f. albus (Pers.) J.A. Muñoz[1],[2].
-Il a été initialement classé dans le genre Boletus sous le basionyme Boletus esculentus var. albus Pers[2].
-Synonymes
-Boletus edulis f. albus a pour synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus edulis f. albus (Pers.) J.A. Muñoz,.
+Il a été initialement classé dans le genre Boletus sous le basionyme Boletus esculentus var. albus Pers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cèpe_blanc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus edulis f. albus a pour synonymes :
 Tubiporus albus Paulet
 Boletus albus Persoon
 Boletus esculentus var. albus Persoon
 Boletus edulis var. albus (Persoon) E.-J. Gilbert
 Boletus persoonii Bon
-Phylogénie
-Le Cèpe blanc était d'abord considéré comme une espèce indépendante sous le nom de Boletus persoonii, avant que les analyses génétiques ne révèlent sa conspécificité avec Boletus edulis, ce qui a eu pour conséquence de le faire basculer au rang de forme de ce dernier[3].
-Étymologie
-L'épithète spécifique de l'ancien taxon est en hommage à Christiaan Hendrik Persoon, tandis que celui de son taxon actuel "albus" fait réfèrence à la couleur blanche "albinique" de cette forme.
-Noms vulgaires et vernaculaires
-Cèpe Blanc, Cèpe de Persoon.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C%C3%A8pe_blanc</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Boletus edulis f. albus, le Cèpe blanc, sont les suivantes :
-Son chapeau est blanc de neige à blanchâtre jusqu'à la fin ou devenant parfois plus ou moins beige ou avec quelques zones légèrement brunâtres (l'ensoleillement n'ayant que peu ou pas d'influence sur la teinte) ; revêtement piléique lisse, glabre, un peu visqueux par temps humide[4].
-L'hyménophore présente des pores et des tubes d'abord blancs[4].
-Son stipe est blanc, généralement orné par un fin réseau en relief, concolore, brunissant légèrement au toucher ou par vétusté[4].
-La chair est blanche[4], immuable. Sa saveur et son odeur sont identiques au Cèpe de Bordeaux.
-Caractéristiques microscopiques
-Ses spores mesurent 14,5 à 17,5 μm x 5 à 6,5 μm[4].
 </t>
         </is>
       </c>
@@ -576,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_blanc</t>
+          <t>Cèpe_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,12 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cèpe blanc pousse sous feuillus et résineux. Il est très rare[4].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cèpe blanc était d'abord considéré comme une espèce indépendante sous le nom de Boletus persoonii, avant que les analyses génétiques ne révèlent sa conspécificité avec Boletus edulis, ce qui a eu pour conséquence de le faire basculer au rang de forme de ce dernier.
 </t>
         </is>
       </c>
@@ -607,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_blanc</t>
+          <t>Cèpe_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,12 +634,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étant de facto un Cèpe de Bordeaux, le Cèpe blanc est au même titre un bon comestible. Cependant, sa grande rareté devrait inciter à ne pas le consommer.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique de l'ancien taxon est en hommage à Christiaan Hendrik Persoon, tandis que celui de son taxon actuel "albus" fait réfèrence à la couleur blanche "albinique" de cette forme.
 </t>
         </is>
       </c>
@@ -638,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_blanc</t>
+          <t>Cèpe_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,10 +671,189 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cèpe Blanc, Cèpe de Persoon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cèpe_blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Boletus edulis f. albus, le Cèpe blanc, sont les suivantes :
+Son chapeau est blanc de neige à blanchâtre jusqu'à la fin ou devenant parfois plus ou moins beige ou avec quelques zones légèrement brunâtres (l'ensoleillement n'ayant que peu ou pas d'influence sur la teinte) ; revêtement piléique lisse, glabre, un peu visqueux par temps humide.
+L'hyménophore présente des pores et des tubes d'abord blancs.
+Son stipe est blanc, généralement orné par un fin réseau en relief, concolore, brunissant légèrement au toucher ou par vétusté.
+La chair est blanche, immuable. Sa saveur et son odeur sont identiques au Cèpe de Bordeaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cèpe_blanc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 14,5 à 17,5 μm x 5 à 6,5 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cèpe_blanc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cèpe blanc pousse sous feuillus et résineux. Il est très rare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cèpe_blanc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étant de facto un Cèpe de Bordeaux, le Cèpe blanc est au même titre un bon comestible. Cependant, sa grande rareté devrait inciter à ne pas le consommer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cèpe_blanc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_blanc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Attention à ne pas le confondre avec un Cèpe parasité par Hypomyces chrysospermus, qui rend le sporophore blanc et surtout impropre à la consommation. Cependant, le sporophore infecté prend assez rapidement une silhouette déformée ou torturée, les taches blanches peuvent être localisées et H. chrysospermus devient jaune à maturité.
 Le Cèpe d'été (Boletus reticulatus), possède lui aussi une très rare forme blanche, non décrite.
